--- a/passwordlist.xlsx
+++ b/passwordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>S.NO</t>
   </si>
@@ -148,6 +148,69 @@
   </si>
   <si>
     <t>student 18</t>
+  </si>
+  <si>
+    <t>Lakshman</t>
+  </si>
+  <si>
+    <t>Nadiya</t>
+  </si>
+  <si>
+    <t>Ritesh</t>
+  </si>
+  <si>
+    <t>Nirma</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>rupesh</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>suresh</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>vignesh</t>
+  </si>
+  <si>
+    <t>Malini</t>
+  </si>
+  <si>
+    <t>ec2-13-126-47-251.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>ec2-35-154-253-104.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ec2-35-154-245-16.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ec2-13-127-116-192.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>ec2-13-127-44-231.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>ec2-13-126-173-28.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>ec2-13-126-180-44.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>ec2-13-126-28-55.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>ec2-13-126-57-176.ap-south-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>ec2-13-126-194-251.ap-south-1.compute.amazonaws.com</t>
   </si>
 </sst>
 </file>
@@ -233,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -293,12 +356,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -334,6 +406,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,12 +706,14 @@
     <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -660,8 +740,14 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -674,8 +760,14 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -688,8 +780,14 @@
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -702,8 +800,14 @@
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -716,8 +820,14 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -730,8 +840,14 @@
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -744,8 +860,14 @@
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -758,8 +880,14 @@
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -772,8 +900,14 @@
       <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -786,8 +920,14 @@
       <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -800,8 +940,14 @@
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -815,7 +961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -829,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -843,7 +989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -857,7 +1003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -871,7 +1017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -885,7 +1031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -899,7 +1045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>19</v>
       </c>
